--- a/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_20.xlsx
+++ b/PLDI-2012/raw_data/fuzz2/fuzzed/fanniemae_fuzzed_20.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Selected Financial Information</t>
   </si>
@@ -1181,7 +1181,7 @@
         <v>1398800851.3300049</v>
       </c>
       <c r="E12" s="1">
-        <v>1361974149</v>
+        <v>1361974148</v>
       </c>
       <c r="F12" s="1">
         <v>1305498328.7699957</v>
@@ -1253,7 +1253,7 @@
         <v>-45752811.059999987</v>
       </c>
       <c r="E14" s="1">
-        <v>30000000</v>
+        <v>537985.22</v>
       </c>
       <c r="F14" s="1">
         <v>44875817.619999997</v>
@@ -1289,7 +1289,7 @@
         <v>30000000</v>
       </c>
       <c r="E15" s="1">
-        <v>-60473972.810000002</v>
+        <v>30000000</v>
       </c>
       <c r="F15" s="1">
         <v>35000000</v>
@@ -1325,7 +1325,7 @@
         <v>-50601311.959999993</v>
       </c>
       <c r="E16" s="1">
-        <v>1447134856</v>
+        <v>-60473972.810000002</v>
       </c>
       <c r="F16" s="1">
         <v>-53616441.74000001</v>
@@ -1399,7 +1399,8 @@
         <v>1447283759.3800049</v>
       </c>
       <c r="E18" s="1">
-        <v>-384700000</v>
+        <f>SUM(E12:E17)</f>
+        <v>1447134854.46</v>
       </c>
       <c r="F18" s="1">
         <f>SUM(F12:F17)</f>
@@ -1439,7 +1440,7 @@
         <v>-383099999.99999988</v>
       </c>
       <c r="E19" s="1">
-        <v>1062434856</v>
+        <v>-384700000</v>
       </c>
       <c r="F19" s="1">
         <v>-412700000</v>
@@ -1513,7 +1514,8 @@
         <v>1096925174.6300049</v>
       </c>
       <c r="E21" s="33">
-        <v>-20015625</v>
+        <f>SUM(E18:E20)</f>
+        <v>1062434854.46</v>
       </c>
       <c r="F21" s="33">
         <f>SUM(F18:F20)</f>
@@ -1553,7 +1555,7 @@
         <v>-32201025</v>
       </c>
       <c r="E22" s="32">
-        <v>1018613404</v>
+        <v>-20015625</v>
       </c>
       <c r="F22" s="32">
         <v>-20015625</v>
@@ -1592,7 +1594,7 @@
       </c>
       <c r="E23" s="33">
         <f>SUM(E21:E22)</f>
-        <v>998597779</v>
+        <v>1042419229.46</v>
       </c>
       <c r="F23" s="33">
         <f>SUM(F21:F22)</f>
@@ -1638,9 +1640,9 @@
         <f>D23/D26</f>
         <v>1.0541908745672561</v>
       </c>
-      <c r="E25" s="5" t="e">
+      <c r="E25" s="5">
         <f>E23/E26</f>
-        <v>#VALUE!</v>
+        <v>1.0233708150378904</v>
       </c>
       <c r="F25" s="5">
         <f>F23/F26</f>
@@ -1677,8 +1679,8 @@
       <c r="D26" s="1">
         <v>1009991810.1331247</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>13</v>
+      <c r="E26" s="1">
+        <v>1018613404</v>
       </c>
       <c r="F26" s="1">
         <v>1026703455.3810816</v>
@@ -1729,13 +1731,13 @@
         <f>(D25-C25)/C25</f>
         <v>-3.0230131741731451E-2</v>
       </c>
-      <c r="E28" s="16" t="e">
+      <c r="E28" s="16">
         <f>(E25-D25)/D25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="16" t="e">
+        <v>-2.9235748736695637E-2</v>
+      </c>
+      <c r="F28" s="16">
         <f>(F25-E25)/E25</f>
-        <v>#VALUE!</v>
+        <v>-3.0784811440861787E-2</v>
       </c>
       <c r="G28" s="16">
         <f>(G25-F25)/F25</f>
@@ -1761,9 +1763,9 @@
       <c r="B29" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="5" t="e">
+      <c r="C29" s="5">
         <f>SUM(C25:G25)/5</f>
-        <v>#VALUE!</v>
+        <v>1.0199816894085849</v>
       </c>
       <c r="E29" s="13"/>
       <c r="F29" s="12"/>
